--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>789632.7580796427</v>
+        <v>785449.3646131188</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6468565.071246426</v>
+        <v>6468565.071246431</v>
       </c>
     </row>
     <row r="9">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F8" t="n">
-        <v>3.262548922260277</v>
+        <v>2.87365309072685</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.677227098474518</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.677227098474517</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.402203503702471</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.8426041147488</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>27.56154059003962</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>43.97954181326713</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>318.4962008704472</v>
       </c>
       <c r="G14" t="n">
-        <v>189.6554371447622</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>57.09228531058715</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>60.07073011995501</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>29.12034060099202</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.0502484288691</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>183.4833492442743</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>130.7837217554836</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>213.1028717168901</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.43184169178927</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4035163750517</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.68843280209086</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>239.0680803907764</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.13976939317105</v>
+        <v>43.13976939317106</v>
       </c>
       <c r="T24" t="n">
         <v>124.6060323055468</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.41769053115381</v>
+        <v>13.69617192816429</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>283.8420491864438</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>132.1568569179055</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.13976939317105</v>
+        <v>43.13976939317106</v>
       </c>
       <c r="T27" t="n">
         <v>124.6060323055468</v>
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.0470513617563</v>
       </c>
       <c r="H28" t="n">
-        <v>17.48703721913024</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>47.12661948839341</v>
       </c>
       <c r="T28" t="n">
         <v>239.625141907721</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>49.15631500014197</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>390.6006860844467</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4035163750517</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>37.68843280209086</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.13976939317105</v>
+        <v>43.13976939317106</v>
       </c>
       <c r="T30" t="n">
         <v>124.6060323055468</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0470513617563</v>
+        <v>115.6334583131414</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.25890137243186</v>
+        <v>61.05941942646667</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.625141907721</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4035163750517</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.68843280209086</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0354923354511</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>60.61423632066447</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.13976939317105</v>
+        <v>43.13976939317106</v>
       </c>
       <c r="T33" t="n">
         <v>124.6060323055468</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>12.47366486911645</v>
+        <v>12.47366486911602</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>291.2424717996734</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4716527211199</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>251.9338135494007</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>34.52475839504926</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.05941942646666</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T37" t="n">
         <v>239.625141907721</v>
@@ -3483,13 +3483,13 @@
         <v>275.6002174196435</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>184.7857228070643</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>314.5858361206679</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>276.7565131928675</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>86.51536517281059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>141.5257626803523</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>61.05941942646666</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4035163750517</v>
+        <v>9.067456494774786</v>
       </c>
       <c r="H41" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.68843280209085</v>
       </c>
       <c r="T41" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4716527211199</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>75.311642286237</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>45.24552902241852</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>275.6002174196435</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>130.0453261386205</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4035163750517</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>265.9577299060851</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>14.16132256314817</v>
+        <v>37.68843280209085</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4716527211199</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>239.0680803907773</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.47166529633439</v>
       </c>
       <c r="H45" t="n">
-        <v>31.0850459453</v>
+        <v>31.08504594530001</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>162.3760051924444</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.05941942646666</v>
+        <v>12.47366486911645</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.625141907721</v>
       </c>
       <c r="U46" t="n">
         <v>275.6002174196435</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="C8" t="n">
-        <v>10.14751579941803</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="D8" t="n">
-        <v>6.852011837538958</v>
+        <v>6.459187765282969</v>
       </c>
       <c r="E8" t="n">
-        <v>3.55650787565989</v>
+        <v>3.163683803403903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J8" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713748</v>
       </c>
       <c r="K8" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L8" t="n">
-        <v>4.180237967355346</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278586</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N8" t="n">
-        <v>7.931409106423309</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O8" t="n">
-        <v>9.716685196678942</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P8" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="S8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="T8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="U8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="V8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="W8" t="n">
-        <v>13.05019568904111</v>
+        <v>13.0501956890411</v>
       </c>
       <c r="X8" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162037</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.05019568904111</v>
+        <v>6.459187765282969</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I9" t="n">
         <v>0.4561956203818616</v>
@@ -4892,43 +4892,43 @@
         <v>3.138229129822361</v>
       </c>
       <c r="M9" t="n">
-        <v>4.574690899292686</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N9" t="n">
-        <v>6.049171537475494</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O9" t="n">
-        <v>7.398033258238116</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P9" t="n">
-        <v>8.480613706900035</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.204290067271584</v>
+        <v>9.204290067271582</v>
       </c>
       <c r="R9" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="S9" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="T9" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="U9" t="n">
-        <v>6.260777672098796</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="V9" t="n">
-        <v>2.965273710219728</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.556281633977862</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.556281633977862</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5970352923692028</v>
+        <v>0.5970352923692027</v>
       </c>
       <c r="K10" t="n">
         <v>1.149238072150546</v>
@@ -4971,7 +4971,7 @@
         <v>1.855867513507673</v>
       </c>
       <c r="M10" t="n">
-        <v>2.600909182660232</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N10" t="n">
         <v>3.328235426170353</v>
@@ -4986,28 +4986,28 @@
         <v>4.97287505111693</v>
       </c>
       <c r="R10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="S10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="T10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="U10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="V10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="W10" t="n">
-        <v>4.97287505111693</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="X10" t="n">
-        <v>3.55650787565989</v>
+        <v>1.677371089237864</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2610039137808222</v>
+        <v>1.677371089237864</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.20655154895473</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5074,19 +5074,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1849.01926465316</v>
+        <v>2080.250016141707</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.402314586986</v>
+        <v>1717.633066075534</v>
       </c>
       <c r="W11" t="n">
-        <v>1081.54685999802</v>
+        <v>1312.777611486567</v>
       </c>
       <c r="X11" t="n">
-        <v>662.4043965773304</v>
+        <v>893.635148065878</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.1182728769838</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,7 +5126,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5196,7 +5196,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1842.060047552668</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,16 +5226,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2315.903797838376</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>2028.948289708806</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W13" t="n">
         <v>1756.921885295098</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1536.32965943808</v>
+        <v>807.0623585781044</v>
       </c>
       <c r="C14" t="n">
-        <v>1536.32965943808</v>
+        <v>368.9198857615277</v>
       </c>
       <c r="D14" t="n">
-        <v>1100.419874612525</v>
+        <v>368.9198857615277</v>
       </c>
       <c r="E14" t="n">
-        <v>666.6451297708199</v>
+        <v>368.9198857615277</v>
       </c>
       <c r="F14" t="n">
-        <v>238.7777001800277</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y14" t="n">
-        <v>1536.32965943808</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C16" t="n">
-        <v>443.5200532683665</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D16" t="n">
-        <v>277.6420604698892</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8840567206265</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,16 +5445,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X16" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1173.712709371907</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C17" t="n">
-        <v>1173.712709371907</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D17" t="n">
-        <v>1173.712709371907</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y17" t="n">
-        <v>1173.712709371907</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>520.9988465953642</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C19" t="n">
-        <v>520.9988465953642</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D19" t="n">
-        <v>520.9988465953642</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092375</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2174.990861039379</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1896.604229088122</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1525.741883262482</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1525.741883262482</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1089.832098436927</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.04145374739</v>
+        <v>1915.005753073567</v>
       </c>
     </row>
     <row r="21">
@@ -5810,37 +5810,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191038</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548085996</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1603.932529194406</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1731.431440998295</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1849.197322346057</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5946,16 +5946,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.563565109107</v>
+        <v>1785.521902198868</v>
       </c>
       <c r="C23" t="n">
-        <v>2015.42109229253</v>
+        <v>1347.379429382291</v>
       </c>
       <c r="D23" t="n">
-        <v>1579.511307466975</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E23" t="n">
-        <v>1145.73656262527</v>
+        <v>477.6948997150307</v>
       </c>
       <c r="F23" t="n">
-        <v>717.8691330344776</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="G23" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="H23" t="n">
         <v>49.82747012423849</v>
@@ -5989,7 +5989,7 @@
         <v>125.0024357192122</v>
       </c>
       <c r="J23" t="n">
-        <v>291.4002506756536</v>
+        <v>291.4002506756535</v>
       </c>
       <c r="K23" t="n">
         <v>540.7874411116297</v>
@@ -6016,25 +6016,25 @@
         <v>2491.373506211924</v>
       </c>
       <c r="S23" t="n">
-        <v>2491.373506211924</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="T23" t="n">
-        <v>2491.373506211924</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="U23" t="n">
-        <v>2491.373506211924</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="V23" t="n">
-        <v>2491.373506211924</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="W23" t="n">
-        <v>2491.373506211924</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="X23" t="n">
-        <v>2491.373506211924</v>
+        <v>2211.821472683775</v>
       </c>
       <c r="Y23" t="n">
-        <v>2491.373506211924</v>
+        <v>2211.821472683775</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.82747012423849</v>
       </c>
       <c r="I24" t="n">
-        <v>58.74508305038115</v>
+        <v>85.94359191031599</v>
       </c>
       <c r="J24" t="n">
-        <v>157.850481699285</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K24" t="n">
-        <v>327.2373932659112</v>
+        <v>354.435902125846</v>
       </c>
       <c r="L24" t="n">
-        <v>554.9989995104676</v>
+        <v>582.1975083704023</v>
       </c>
       <c r="M24" t="n">
-        <v>820.7860511769258</v>
+        <v>847.9845600368603</v>
       </c>
       <c r="N24" t="n">
-        <v>1093.60769522694</v>
+        <v>1120.806204086874</v>
       </c>
       <c r="O24" t="n">
-        <v>1343.186199498194</v>
+        <v>1370.384708358129</v>
       </c>
       <c r="P24" t="n">
-        <v>1543.494952405486</v>
+        <v>1570.69346126542</v>
       </c>
       <c r="Q24" t="n">
-        <v>1677.396049024849</v>
+        <v>1612.26740953393</v>
       </c>
       <c r="R24" t="n">
         <v>1677.396049024849</v>
@@ -6126,22 +6126,22 @@
         <v>603.7277327568522</v>
       </c>
       <c r="C25" t="n">
-        <v>431.1660212400772</v>
+        <v>603.7277327568522</v>
       </c>
       <c r="D25" t="n">
-        <v>384.2794651480026</v>
+        <v>589.8932156576964</v>
       </c>
       <c r="E25" t="n">
-        <v>214.5214613987398</v>
+        <v>420.1352119084336</v>
       </c>
       <c r="F25" t="n">
-        <v>214.5214613987398</v>
+        <v>243.4281578701898</v>
       </c>
       <c r="G25" t="n">
-        <v>49.82747012423849</v>
+        <v>243.4281578701898</v>
       </c>
       <c r="H25" t="n">
-        <v>49.82747012423849</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="I25" t="n">
         <v>49.82747012423849</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1357.654472608076</v>
+        <v>1785.521902198868</v>
       </c>
       <c r="C26" t="n">
-        <v>919.5119997914989</v>
+        <v>1347.379429382291</v>
       </c>
       <c r="D26" t="n">
-        <v>483.6022149659433</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E26" t="n">
-        <v>49.8274701242385</v>
+        <v>477.6948997150307</v>
       </c>
       <c r="F26" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="G26" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="H26" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I26" t="n">
-        <v>125.0024357192122</v>
+        <v>125.0024357192123</v>
       </c>
       <c r="J26" t="n">
-        <v>291.4002506756535</v>
+        <v>291.4002506756536</v>
       </c>
       <c r="K26" t="n">
         <v>540.7874411116297</v>
       </c>
       <c r="L26" t="n">
-        <v>850.1743031713197</v>
+        <v>850.1743031713199</v>
       </c>
       <c r="M26" t="n">
         <v>1194.426799679018</v>
@@ -6250,28 +6250,28 @@
         <v>2368.220154984277</v>
       </c>
       <c r="R26" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S26" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="T26" t="n">
-        <v>2280.062767823708</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="U26" t="n">
-        <v>2146.570993159157</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="V26" t="n">
-        <v>1783.954043092983</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="W26" t="n">
-        <v>1783.954043092983</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="X26" t="n">
-        <v>1783.954043092983</v>
+        <v>2072.231042791235</v>
       </c>
       <c r="Y26" t="n">
-        <v>1783.954043092983</v>
+        <v>2072.231042791235</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>165.5413198632631</v>
       </c>
       <c r="G27" t="n">
-        <v>81.22650643262234</v>
+        <v>81.22650643262233</v>
       </c>
       <c r="H27" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I27" t="n">
-        <v>49.8274701242385</v>
+        <v>85.94359191031599</v>
       </c>
       <c r="J27" t="n">
-        <v>148.9328687731424</v>
+        <v>92.72184220836633</v>
       </c>
       <c r="K27" t="n">
-        <v>262.108753774992</v>
+        <v>262.1087537749925</v>
       </c>
       <c r="L27" t="n">
-        <v>489.8703600195483</v>
+        <v>489.8703600195488</v>
       </c>
       <c r="M27" t="n">
-        <v>755.6574116860066</v>
+        <v>755.657411686007</v>
       </c>
       <c r="N27" t="n">
         <v>1028.479055736021</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>747.3318937109534</v>
+        <v>927.1489184489727</v>
       </c>
       <c r="C28" t="n">
-        <v>574.7701821941783</v>
+        <v>754.5872069321977</v>
       </c>
       <c r="D28" t="n">
-        <v>408.8921893957011</v>
+        <v>754.5872069321977</v>
       </c>
       <c r="E28" t="n">
-        <v>408.8921893957011</v>
+        <v>584.829203182935</v>
       </c>
       <c r="F28" t="n">
-        <v>232.1851353574573</v>
+        <v>408.1221491446912</v>
       </c>
       <c r="G28" t="n">
-        <v>67.49114408295591</v>
+        <v>243.4281578701898</v>
       </c>
       <c r="H28" t="n">
-        <v>49.8274701242385</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="I28" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="J28" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353994</v>
       </c>
       <c r="K28" t="n">
-        <v>575.5146674960207</v>
+        <v>214.1765277601952</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1506820166775</v>
+        <v>344.9234503937719</v>
       </c>
       <c r="M28" t="n">
-        <v>1423.488847043424</v>
+        <v>824.505478711633</v>
       </c>
       <c r="N28" t="n">
-        <v>2000.324080963634</v>
+        <v>1401.340712631843</v>
       </c>
       <c r="O28" t="n">
-        <v>2124.627196599371</v>
+        <v>1945.313077493362</v>
       </c>
       <c r="P28" t="n">
-        <v>2230.989986052539</v>
+        <v>2399.182760916871</v>
       </c>
       <c r="Q28" t="n">
         <v>2472.822843121707</v>
       </c>
       <c r="R28" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S28" t="n">
-        <v>2491.373506211925</v>
+        <v>2443.770860264052</v>
       </c>
       <c r="T28" t="n">
-        <v>2249.327908325338</v>
+        <v>2201.725262377465</v>
       </c>
       <c r="U28" t="n">
-        <v>1970.943850325698</v>
+        <v>1923.341204377825</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.988342196128</v>
+        <v>1636.385696248256</v>
       </c>
       <c r="W28" t="n">
-        <v>1411.96193778242</v>
+        <v>1364.359291834547</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.570183115832</v>
+        <v>1118.96753716796</v>
       </c>
       <c r="Y28" t="n">
-        <v>939.1505124299406</v>
+        <v>1118.96753716796</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2065.073935727017</v>
+        <v>1277.545853813921</v>
       </c>
       <c r="C29" t="n">
-        <v>2015.42109229253</v>
+        <v>1277.545853813921</v>
       </c>
       <c r="D29" t="n">
-        <v>1579.511307466975</v>
+        <v>882.9997062538743</v>
       </c>
       <c r="E29" t="n">
-        <v>1145.73656262527</v>
+        <v>449.2249614121694</v>
       </c>
       <c r="F29" t="n">
-        <v>717.8691330344777</v>
+        <v>449.2249614121694</v>
       </c>
       <c r="G29" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423848</v>
       </c>
       <c r="H29" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423848</v>
       </c>
       <c r="I29" t="n">
-        <v>125.0024357192124</v>
+        <v>125.0024357192121</v>
       </c>
       <c r="J29" t="n">
-        <v>291.400250675654</v>
+        <v>291.4002506756534</v>
       </c>
       <c r="K29" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116295</v>
       </c>
       <c r="L29" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713197</v>
       </c>
       <c r="M29" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N29" t="n">
         <v>1544.249661485115</v>
@@ -6481,34 +6481,34 @@
         <v>1874.577470080141</v>
       </c>
       <c r="P29" t="n">
-        <v>2156.504612312045</v>
+        <v>2156.504612312044</v>
       </c>
       <c r="Q29" t="n">
-        <v>2368.220154984278</v>
+        <v>2368.220154984277</v>
       </c>
       <c r="R29" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S29" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="T29" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="U29" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="V29" t="n">
-        <v>2491.373506211925</v>
+        <v>2090.687432103235</v>
       </c>
       <c r="W29" t="n">
-        <v>2491.373506211925</v>
+        <v>1685.831977514268</v>
       </c>
       <c r="X29" t="n">
-        <v>2491.373506211925</v>
+        <v>1685.831977514268</v>
       </c>
       <c r="Y29" t="n">
-        <v>2491.373506211925</v>
+        <v>1277.545853813921</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>165.5413198632631</v>
       </c>
       <c r="G30" t="n">
-        <v>81.22650643262234</v>
+        <v>81.22650643262233</v>
       </c>
       <c r="H30" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423848</v>
       </c>
       <c r="I30" t="n">
-        <v>85.94359191031602</v>
+        <v>85.94359191031599</v>
       </c>
       <c r="J30" t="n">
-        <v>92.7218422083658</v>
+        <v>185.0489905592198</v>
       </c>
       <c r="K30" t="n">
-        <v>262.108753774992</v>
+        <v>262.1087537749925</v>
       </c>
       <c r="L30" t="n">
-        <v>489.8703600195483</v>
+        <v>489.8703600195488</v>
       </c>
       <c r="M30" t="n">
-        <v>755.6574116860066</v>
+        <v>755.657411686007</v>
       </c>
       <c r="N30" t="n">
         <v>1028.479055736021</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.7277327568527</v>
+        <v>747.3318937109525</v>
       </c>
       <c r="C31" t="n">
-        <v>431.1660212400776</v>
+        <v>574.7701821941774</v>
       </c>
       <c r="D31" t="n">
-        <v>265.2880284416003</v>
+        <v>574.7701821941774</v>
       </c>
       <c r="E31" t="n">
-        <v>265.2880284416003</v>
+        <v>405.0121784449147</v>
       </c>
       <c r="F31" t="n">
-        <v>265.2880284416003</v>
+        <v>228.3051244066709</v>
       </c>
       <c r="G31" t="n">
-        <v>100.594037167099</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="H31" t="n">
-        <v>100.594037167099</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="I31" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423848</v>
       </c>
       <c r="J31" t="n">
-        <v>198.5826975000893</v>
+        <v>112.0030123353994</v>
       </c>
       <c r="K31" t="n">
-        <v>575.5146674960207</v>
+        <v>214.1765277601952</v>
       </c>
       <c r="L31" t="n">
-        <v>1124.471471897558</v>
+        <v>763.1333321617328</v>
       </c>
       <c r="M31" t="n">
-        <v>1262.325769743392</v>
+        <v>1360.471497188479</v>
       </c>
       <c r="N31" t="n">
-        <v>1396.902200505958</v>
+        <v>1495.047927951045</v>
       </c>
       <c r="O31" t="n">
-        <v>1777.120302629031</v>
+        <v>2039.020292812564</v>
       </c>
       <c r="P31" t="n">
-        <v>2230.98998605254</v>
+        <v>2399.182760916871</v>
       </c>
       <c r="Q31" t="n">
-        <v>2472.822843121707</v>
+        <v>2472.822843121706</v>
       </c>
       <c r="R31" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S31" t="n">
-        <v>2347.769345257824</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="T31" t="n">
-        <v>2105.723747371237</v>
+        <v>2249.327908325337</v>
       </c>
       <c r="U31" t="n">
-        <v>1827.339689371597</v>
+        <v>1970.943850325697</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.384181242028</v>
+        <v>1683.988342196127</v>
       </c>
       <c r="W31" t="n">
-        <v>1268.357776828319</v>
+        <v>1411.961937782419</v>
       </c>
       <c r="X31" t="n">
-        <v>1022.966022161732</v>
+        <v>1166.570183115831</v>
       </c>
       <c r="Y31" t="n">
-        <v>795.5463514758399</v>
+        <v>939.1505124299397</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1145.73656262527</v>
+        <v>1349.612117373312</v>
       </c>
       <c r="C32" t="n">
-        <v>1145.73656262527</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="D32" t="n">
-        <v>1145.73656262527</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E32" t="n">
-        <v>1145.73656262527</v>
+        <v>477.6948997150307</v>
       </c>
       <c r="F32" t="n">
-        <v>717.8691330344777</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="G32" t="n">
-        <v>318.4716417465467</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="H32" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I32" t="n">
-        <v>125.002435719212</v>
+        <v>125.0024357192123</v>
       </c>
       <c r="J32" t="n">
-        <v>291.4002506756534</v>
+        <v>291.4002506756536</v>
       </c>
       <c r="K32" t="n">
-        <v>540.7874411116295</v>
+        <v>540.7874411116297</v>
       </c>
       <c r="L32" t="n">
-        <v>850.1743031713198</v>
+        <v>850.1743031713199</v>
       </c>
       <c r="M32" t="n">
         <v>1194.426799679018</v>
@@ -6724,28 +6724,28 @@
         <v>2368.220154984277</v>
       </c>
       <c r="R32" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S32" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.304382169408</v>
       </c>
       <c r="T32" t="n">
-        <v>2491.373506211925</v>
+        <v>2241.993643781191</v>
       </c>
       <c r="U32" t="n">
-        <v>2335.782099812479</v>
+        <v>2241.993643781191</v>
       </c>
       <c r="V32" t="n">
-        <v>1973.165149746306</v>
+        <v>2241.993643781191</v>
       </c>
       <c r="W32" t="n">
-        <v>1973.165149746306</v>
+        <v>1837.138189192224</v>
       </c>
       <c r="X32" t="n">
-        <v>1554.022686325617</v>
+        <v>1837.138189192224</v>
       </c>
       <c r="Y32" t="n">
-        <v>1145.73656262527</v>
+        <v>1775.91168785822</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>165.5413198632631</v>
       </c>
       <c r="G33" t="n">
-        <v>81.22650643262234</v>
+        <v>81.22650643262233</v>
       </c>
       <c r="H33" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I33" t="n">
-        <v>85.94359191031602</v>
+        <v>85.94359191031599</v>
       </c>
       <c r="J33" t="n">
         <v>185.0489905592199</v>
       </c>
       <c r="K33" t="n">
-        <v>354.4359021258462</v>
+        <v>354.435902125846</v>
       </c>
       <c r="L33" t="n">
-        <v>582.1975083704025</v>
+        <v>582.1975083704023</v>
       </c>
       <c r="M33" t="n">
-        <v>755.6574116860066</v>
+        <v>755.657411686007</v>
       </c>
       <c r="N33" t="n">
         <v>1028.479055736021</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>747.3318937109534</v>
+        <v>747.331893710953</v>
       </c>
       <c r="C34" t="n">
-        <v>574.7701821941783</v>
+        <v>574.7701821941779</v>
       </c>
       <c r="D34" t="n">
-        <v>408.8921893957011</v>
+        <v>408.8921893957006</v>
       </c>
       <c r="E34" t="n">
-        <v>239.1341856464383</v>
+        <v>239.1341856464379</v>
       </c>
       <c r="F34" t="n">
-        <v>62.42713160819451</v>
+        <v>62.42713160819406</v>
       </c>
       <c r="G34" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="H34" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I34" t="n">
-        <v>49.8274701242385</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="J34" t="n">
-        <v>112.0030123353994</v>
+        <v>198.5826975000893</v>
       </c>
       <c r="K34" t="n">
-        <v>214.1765277601952</v>
+        <v>575.5146674960207</v>
       </c>
       <c r="L34" t="n">
-        <v>574.6742076552284</v>
+        <v>706.2615901295974</v>
       </c>
       <c r="M34" t="n">
-        <v>1172.012372681975</v>
+        <v>1303.599755156344</v>
       </c>
       <c r="N34" t="n">
-        <v>1748.847606602185</v>
+        <v>1880.434989076554</v>
       </c>
       <c r="O34" t="n">
-        <v>2292.819971463704</v>
+        <v>2292.819971463703</v>
       </c>
       <c r="P34" t="n">
-        <v>2399.182760916872</v>
+        <v>2399.182760916871</v>
       </c>
       <c r="Q34" t="n">
         <v>2472.822843121707</v>
       </c>
       <c r="R34" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S34" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="T34" t="n">
-        <v>2249.327908325338</v>
+        <v>2249.327908325337</v>
       </c>
       <c r="U34" t="n">
-        <v>1970.943850325698</v>
+        <v>1970.943850325697</v>
       </c>
       <c r="V34" t="n">
         <v>1683.988342196128</v>
       </c>
       <c r="W34" t="n">
-        <v>1411.96193778242</v>
+        <v>1411.961937782419</v>
       </c>
       <c r="X34" t="n">
         <v>1166.570183115832</v>
       </c>
       <c r="Y34" t="n">
-        <v>939.1505124299406</v>
+        <v>939.1505124299401</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1347.379429382291</v>
+        <v>1645.931472306328</v>
       </c>
       <c r="C35" t="n">
-        <v>1347.379429382291</v>
+        <v>1207.788999489751</v>
       </c>
       <c r="D35" t="n">
-        <v>911.4696445567356</v>
+        <v>771.8792146641958</v>
       </c>
       <c r="E35" t="n">
         <v>477.6948997150308</v>
       </c>
       <c r="F35" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G35" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H35" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I35" t="n">
-        <v>125.0024357192126</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J35" t="n">
         <v>291.400250675654</v>
       </c>
       <c r="K35" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116301</v>
       </c>
       <c r="L35" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713202</v>
       </c>
       <c r="M35" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N35" t="n">
         <v>1544.249661485115</v>
       </c>
       <c r="O35" t="n">
-        <v>1874.577470080142</v>
+        <v>1874.577470080141</v>
       </c>
       <c r="P35" t="n">
         <v>2156.504612312045</v>
@@ -6967,22 +6967,22 @@
         <v>2491.373506211925</v>
       </c>
       <c r="T35" t="n">
-        <v>2280.062767823708</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="U35" t="n">
-        <v>2021.00049234783</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="V35" t="n">
-        <v>1766.52189280298</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="W35" t="n">
-        <v>1766.52189280298</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="X35" t="n">
-        <v>1347.379429382291</v>
+        <v>2072.231042791236</v>
       </c>
       <c r="Y35" t="n">
-        <v>1347.379429382291</v>
+        <v>2072.231042791236</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>81.22650643262236</v>
       </c>
       <c r="H36" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I36" t="n">
         <v>85.94359191031602</v>
       </c>
       <c r="J36" t="n">
-        <v>92.7218422083658</v>
+        <v>185.0489905592199</v>
       </c>
       <c r="K36" t="n">
-        <v>262.108753774992</v>
+        <v>354.4359021258461</v>
       </c>
       <c r="L36" t="n">
-        <v>489.8703600195483</v>
+        <v>582.1975083704024</v>
       </c>
       <c r="M36" t="n">
-        <v>755.6574116860066</v>
+        <v>847.9845600368606</v>
       </c>
       <c r="N36" t="n">
-        <v>1028.479055736021</v>
+        <v>1120.806204086874</v>
       </c>
       <c r="O36" t="n">
         <v>1278.057560007275</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.02691124745</v>
+        <v>603.7277327568527</v>
       </c>
       <c r="C37" t="n">
-        <v>920.465199730675</v>
+        <v>431.1660212400776</v>
       </c>
       <c r="D37" t="n">
-        <v>754.5872069321977</v>
+        <v>396.292527911745</v>
       </c>
       <c r="E37" t="n">
-        <v>584.829203182935</v>
+        <v>226.5345241624823</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1221491446912</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G37" t="n">
-        <v>243.4281578701898</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H37" t="n">
-        <v>111.5036513630937</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I37" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="J37" t="n">
         <v>198.5826975000893</v>
@@ -7104,10 +7104,10 @@
         <v>1124.471471897558</v>
       </c>
       <c r="M37" t="n">
-        <v>1518.240756230728</v>
+        <v>1262.325769743392</v>
       </c>
       <c r="N37" t="n">
-        <v>1652.817186993293</v>
+        <v>1396.902200505958</v>
       </c>
       <c r="O37" t="n">
         <v>1777.120302629031</v>
@@ -7116,31 +7116,31 @@
         <v>2230.98998605254</v>
       </c>
       <c r="Q37" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R37" t="n">
         <v>2491.373506211925</v>
       </c>
       <c r="S37" t="n">
-        <v>2491.373506211925</v>
+        <v>2347.769345257824</v>
       </c>
       <c r="T37" t="n">
-        <v>2249.327908325338</v>
+        <v>2105.723747371237</v>
       </c>
       <c r="U37" t="n">
-        <v>1970.943850325698</v>
+        <v>1827.339689371597</v>
       </c>
       <c r="V37" t="n">
-        <v>1970.943850325698</v>
+        <v>1540.384181242028</v>
       </c>
       <c r="W37" t="n">
-        <v>1698.91744591199</v>
+        <v>1268.357776828319</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.265200652329</v>
+        <v>1022.966022161732</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.845529966437</v>
+        <v>795.5463514758399</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1349.612117373312</v>
+        <v>1785.521902198868</v>
       </c>
       <c r="C38" t="n">
-        <v>911.4696445567356</v>
+        <v>1347.379429382291</v>
       </c>
       <c r="D38" t="n">
         <v>911.4696445567356</v>
       </c>
       <c r="E38" t="n">
-        <v>477.6948997150308</v>
+        <v>477.6948997150307</v>
       </c>
       <c r="F38" t="n">
-        <v>49.82747012423851</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="G38" t="n">
-        <v>49.82747012423851</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="H38" t="n">
-        <v>49.82747012423851</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I38" t="n">
-        <v>125.0024357192126</v>
+        <v>125.0024357192122</v>
       </c>
       <c r="J38" t="n">
-        <v>291.400250675654</v>
+        <v>291.4002506756535</v>
       </c>
       <c r="K38" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116296</v>
       </c>
       <c r="L38" t="n">
-        <v>850.1743031713204</v>
+        <v>850.1743031713199</v>
       </c>
       <c r="M38" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N38" t="n">
         <v>1544.249661485115</v>
       </c>
       <c r="O38" t="n">
-        <v>1874.577470080142</v>
+        <v>1874.577470080141</v>
       </c>
       <c r="P38" t="n">
-        <v>2156.504612312045</v>
+        <v>2156.504612312044</v>
       </c>
       <c r="Q38" t="n">
-        <v>2368.220154984278</v>
+        <v>2368.220154984277</v>
       </c>
       <c r="R38" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S38" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="T38" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="U38" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="V38" t="n">
-        <v>2173.610035382968</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="W38" t="n">
-        <v>1768.754580794001</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="X38" t="n">
-        <v>1349.612117373312</v>
+        <v>2211.821472683775</v>
       </c>
       <c r="Y38" t="n">
-        <v>1349.612117373312</v>
+        <v>2211.821472683775</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>248.9251582471015</v>
       </c>
       <c r="F39" t="n">
-        <v>165.5413198632632</v>
+        <v>165.5413198632631</v>
       </c>
       <c r="G39" t="n">
-        <v>81.22650643262236</v>
+        <v>81.22650643262233</v>
       </c>
       <c r="H39" t="n">
-        <v>49.82747012423851</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="I39" t="n">
-        <v>85.94359191031602</v>
+        <v>85.943591910316</v>
       </c>
       <c r="J39" t="n">
         <v>185.0489905592199</v>
       </c>
       <c r="K39" t="n">
-        <v>354.4359021258462</v>
+        <v>262.1087537749924</v>
       </c>
       <c r="L39" t="n">
-        <v>582.1975083704025</v>
+        <v>489.8703600195487</v>
       </c>
       <c r="M39" t="n">
-        <v>847.9845600368608</v>
+        <v>755.657411686007</v>
       </c>
       <c r="N39" t="n">
-        <v>1120.806204086875</v>
+        <v>1028.479055736021</v>
       </c>
       <c r="O39" t="n">
-        <v>1370.384708358129</v>
+        <v>1278.057560007275</v>
       </c>
       <c r="P39" t="n">
-        <v>1570.693461265421</v>
+        <v>1478.366312914567</v>
       </c>
       <c r="Q39" t="n">
-        <v>1677.396049024849</v>
+        <v>1612.26740953393</v>
       </c>
       <c r="R39" t="n">
         <v>1677.396049024849</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>831.1474034427449</v>
+        <v>603.7277327568522</v>
       </c>
       <c r="C40" t="n">
-        <v>743.7581456924312</v>
+        <v>431.1660212400772</v>
       </c>
       <c r="D40" t="n">
-        <v>577.8801528939539</v>
+        <v>431.1660212400772</v>
       </c>
       <c r="E40" t="n">
-        <v>408.1221491446912</v>
+        <v>288.2107054013375</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1221491446912</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="G40" t="n">
-        <v>243.4281578701898</v>
+        <v>111.5036513630937</v>
       </c>
       <c r="H40" t="n">
         <v>111.5036513630937</v>
       </c>
       <c r="I40" t="n">
-        <v>49.82747012423851</v>
+        <v>49.82747012423849</v>
       </c>
       <c r="J40" t="n">
         <v>198.5826975000893</v>
@@ -7338,46 +7338,46 @@
         <v>575.5146674960207</v>
       </c>
       <c r="L40" t="n">
-        <v>706.2615901295975</v>
+        <v>1124.471471897558</v>
       </c>
       <c r="M40" t="n">
-        <v>844.1158879754311</v>
+        <v>1262.325769743392</v>
       </c>
       <c r="N40" t="n">
-        <v>1233.147937767512</v>
+        <v>1396.902200505958</v>
       </c>
       <c r="O40" t="n">
-        <v>1777.120302629031</v>
+        <v>1777.12030262903</v>
       </c>
       <c r="P40" t="n">
-        <v>2230.98998605254</v>
+        <v>2230.989986052539</v>
       </c>
       <c r="Q40" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R40" t="n">
-        <v>2491.373506211925</v>
+        <v>2491.373506211924</v>
       </c>
       <c r="S40" t="n">
-        <v>2347.769345257825</v>
+        <v>2347.769345257824</v>
       </c>
       <c r="T40" t="n">
-        <v>2105.723747371238</v>
+        <v>2105.723747371237</v>
       </c>
       <c r="U40" t="n">
-        <v>1827.339689371598</v>
+        <v>1827.339689371597</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.384181242028</v>
+        <v>1540.384181242027</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.35777682832</v>
+        <v>1268.357776828319</v>
       </c>
       <c r="X40" t="n">
-        <v>1022.966022161732</v>
+        <v>1022.966022161731</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.966022161732</v>
+        <v>795.5463514758394</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1156.011605851054</v>
+        <v>1366.813519572494</v>
       </c>
       <c r="C41" t="n">
-        <v>717.8691330344777</v>
+        <v>928.6710467559178</v>
       </c>
       <c r="D41" t="n">
-        <v>717.8691330344777</v>
+        <v>492.7612619303623</v>
       </c>
       <c r="E41" t="n">
-        <v>717.8691330344777</v>
+        <v>58.98651708865748</v>
       </c>
       <c r="F41" t="n">
-        <v>717.8691330344777</v>
+        <v>58.98651708865748</v>
       </c>
       <c r="G41" t="n">
-        <v>318.4716417465467</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H41" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I41" t="n">
-        <v>125.0024357192126</v>
+        <v>125.0024357192129</v>
       </c>
       <c r="J41" t="n">
-        <v>291.4002506756541</v>
+        <v>291.4002506756543</v>
       </c>
       <c r="K41" t="n">
-        <v>540.7874411116302</v>
+        <v>540.7874411116304</v>
       </c>
       <c r="L41" t="n">
-        <v>850.1743031713205</v>
+        <v>850.1743031713206</v>
       </c>
       <c r="M41" t="n">
         <v>1194.426799679019</v>
@@ -7438,25 +7438,25 @@
         <v>2491.373506211925</v>
       </c>
       <c r="S41" t="n">
-        <v>2491.373506211925</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="T41" t="n">
-        <v>2280.062767823708</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="U41" t="n">
-        <v>2021.00049234783</v>
+        <v>2194.24210669353</v>
       </c>
       <c r="V41" t="n">
-        <v>1658.383542281656</v>
+        <v>2194.24210669353</v>
       </c>
       <c r="W41" t="n">
-        <v>1582.311176335962</v>
+        <v>2194.24210669353</v>
       </c>
       <c r="X41" t="n">
-        <v>1582.311176335962</v>
+        <v>1775.099643272841</v>
       </c>
       <c r="Y41" t="n">
-        <v>1582.311176335962</v>
+        <v>1366.813519572494</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>81.22650643262236</v>
       </c>
       <c r="H42" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I42" t="n">
         <v>85.94359191031602</v>
@@ -7493,16 +7493,16 @@
         <v>185.0489905592199</v>
       </c>
       <c r="K42" t="n">
-        <v>354.4359021258462</v>
+        <v>354.4359021258461</v>
       </c>
       <c r="L42" t="n">
-        <v>582.1975083704025</v>
+        <v>582.1975083704024</v>
       </c>
       <c r="M42" t="n">
-        <v>847.9845600368608</v>
+        <v>847.9845600368606</v>
       </c>
       <c r="N42" t="n">
-        <v>1120.806204086875</v>
+        <v>1120.806204086874</v>
       </c>
       <c r="O42" t="n">
         <v>1370.384708358129</v>
@@ -7511,7 +7511,7 @@
         <v>1570.693461265421</v>
       </c>
       <c r="Q42" t="n">
-        <v>1677.396049024849</v>
+        <v>1612.26740953393</v>
       </c>
       <c r="R42" t="n">
         <v>1677.396049024849</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>603.7277327568531</v>
+        <v>1031.350730008595</v>
       </c>
       <c r="C43" t="n">
-        <v>431.1660212400781</v>
+        <v>858.7890184918198</v>
       </c>
       <c r="D43" t="n">
-        <v>265.2880284416008</v>
+        <v>692.9110256933425</v>
       </c>
       <c r="E43" t="n">
-        <v>95.53002469233803</v>
+        <v>523.1530219440798</v>
       </c>
       <c r="F43" t="n">
-        <v>49.82747012423851</v>
+        <v>346.445967905836</v>
       </c>
       <c r="G43" t="n">
-        <v>49.82747012423851</v>
+        <v>181.7519766313346</v>
       </c>
       <c r="H43" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I43" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="J43" t="n">
         <v>112.0030123353994</v>
@@ -7575,46 +7575,46 @@
         <v>214.1765277601952</v>
       </c>
       <c r="L43" t="n">
-        <v>501.2333419781996</v>
+        <v>763.1333321617329</v>
       </c>
       <c r="M43" t="n">
-        <v>1098.571507004946</v>
+        <v>1360.47149718848</v>
       </c>
       <c r="N43" t="n">
-        <v>1233.147937767512</v>
+        <v>1937.30673110869</v>
       </c>
       <c r="O43" t="n">
-        <v>1777.120302629031</v>
+        <v>2292.819971463704</v>
       </c>
       <c r="P43" t="n">
-        <v>2230.98998605254</v>
+        <v>2399.182760916872</v>
       </c>
       <c r="Q43" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R43" t="n">
         <v>2491.373506211925</v>
       </c>
       <c r="S43" t="n">
-        <v>2347.769345257825</v>
+        <v>2347.769345257824</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.723747371238</v>
+        <v>2105.723747371237</v>
       </c>
       <c r="U43" t="n">
-        <v>1827.339689371598</v>
+        <v>1827.339689371597</v>
       </c>
       <c r="V43" t="n">
-        <v>1540.384181242028</v>
+        <v>1695.980774080061</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.35777682832</v>
+        <v>1695.980774080061</v>
       </c>
       <c r="X43" t="n">
-        <v>1022.966022161732</v>
+        <v>1450.589019413474</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.5463514758403</v>
+        <v>1223.169348727582</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1587.553662701738</v>
+        <v>1785.521902198868</v>
       </c>
       <c r="C44" t="n">
-        <v>1587.553662701738</v>
+        <v>1347.379429382291</v>
       </c>
       <c r="D44" t="n">
-        <v>1151.643877876183</v>
+        <v>911.4696445567356</v>
       </c>
       <c r="E44" t="n">
-        <v>717.8691330344777</v>
+        <v>477.6948997150308</v>
       </c>
       <c r="F44" t="n">
-        <v>717.8691330344777</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="G44" t="n">
-        <v>318.4716417465467</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="H44" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I44" t="n">
         <v>125.0024357192122</v>
@@ -7651,19 +7651,19 @@
         <v>291.400250675654</v>
       </c>
       <c r="K44" t="n">
-        <v>540.7874411116304</v>
+        <v>540.7874411116301</v>
       </c>
       <c r="L44" t="n">
-        <v>850.1743031713206</v>
+        <v>850.1743031713202</v>
       </c>
       <c r="M44" t="n">
-        <v>1194.426799679019</v>
+        <v>1194.426799679018</v>
       </c>
       <c r="N44" t="n">
-        <v>1544.249661485116</v>
+        <v>1544.249661485115</v>
       </c>
       <c r="O44" t="n">
-        <v>1874.577470080142</v>
+        <v>1874.577470080141</v>
       </c>
       <c r="P44" t="n">
         <v>2156.504612312045</v>
@@ -7675,25 +7675,25 @@
         <v>2491.373506211925</v>
       </c>
       <c r="S44" t="n">
-        <v>2477.069139986523</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="T44" t="n">
-        <v>2265.758401598306</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="U44" t="n">
-        <v>2006.696126122427</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="V44" t="n">
-        <v>2006.696126122427</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="W44" t="n">
-        <v>2006.696126122427</v>
+        <v>2453.304382169409</v>
       </c>
       <c r="X44" t="n">
-        <v>1587.553662701738</v>
+        <v>2211.821472683775</v>
       </c>
       <c r="Y44" t="n">
-        <v>1587.553662701738</v>
+        <v>2211.821472683775</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>81.22650643262236</v>
       </c>
       <c r="H45" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="I45" t="n">
-        <v>85.94359191031603</v>
+        <v>85.94359191031602</v>
       </c>
       <c r="J45" t="n">
-        <v>92.72184220836577</v>
+        <v>92.72184220836621</v>
       </c>
       <c r="K45" t="n">
-        <v>262.108753774992</v>
+        <v>262.1087537749924</v>
       </c>
       <c r="L45" t="n">
-        <v>489.8703600195483</v>
+        <v>489.8703600195487</v>
       </c>
       <c r="M45" t="n">
-        <v>755.6574116860066</v>
+        <v>755.657411686007</v>
       </c>
       <c r="N45" t="n">
         <v>1028.479055736021</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.165085310028</v>
+        <v>747.3318937109534</v>
       </c>
       <c r="C46" t="n">
-        <v>918.6033737932527</v>
+        <v>574.7701821941783</v>
       </c>
       <c r="D46" t="n">
-        <v>754.5872069321977</v>
+        <v>408.8921893957011</v>
       </c>
       <c r="E46" t="n">
-        <v>584.829203182935</v>
+        <v>239.1341856464383</v>
       </c>
       <c r="F46" t="n">
-        <v>408.1221491446912</v>
+        <v>62.42713160819451</v>
       </c>
       <c r="G46" t="n">
-        <v>243.4281578701898</v>
+        <v>62.42713160819451</v>
       </c>
       <c r="H46" t="n">
-        <v>111.5036513630937</v>
+        <v>62.42713160819451</v>
       </c>
       <c r="I46" t="n">
-        <v>49.82747012423851</v>
+        <v>49.8274701242385</v>
       </c>
       <c r="J46" t="n">
         <v>198.5826975000893</v>
       </c>
       <c r="K46" t="n">
-        <v>575.5146674960207</v>
+        <v>300.7562129248851</v>
       </c>
       <c r="L46" t="n">
-        <v>1124.471471897558</v>
+        <v>431.5031355584618</v>
       </c>
       <c r="M46" t="n">
-        <v>1518.240756230728</v>
+        <v>1028.841300585209</v>
       </c>
       <c r="N46" t="n">
-        <v>1652.817186993293</v>
+        <v>1605.676534505419</v>
       </c>
       <c r="O46" t="n">
-        <v>1777.120302629031</v>
+        <v>2124.627196599372</v>
       </c>
       <c r="P46" t="n">
         <v>2230.98998605254</v>
       </c>
       <c r="Q46" t="n">
-        <v>2472.822843121708</v>
+        <v>2472.822843121707</v>
       </c>
       <c r="R46" t="n">
         <v>2491.373506211925</v>
       </c>
       <c r="S46" t="n">
-        <v>2347.769345257825</v>
+        <v>2491.373506211925</v>
       </c>
       <c r="T46" t="n">
-        <v>2347.769345257825</v>
+        <v>2249.327908325338</v>
       </c>
       <c r="U46" t="n">
-        <v>2069.385287258185</v>
+        <v>1970.943850325698</v>
       </c>
       <c r="V46" t="n">
-        <v>1782.429779128615</v>
+        <v>1683.988342196128</v>
       </c>
       <c r="W46" t="n">
-        <v>1510.403374714907</v>
+        <v>1411.96193778242</v>
       </c>
       <c r="X46" t="n">
-        <v>1510.403374714907</v>
+        <v>1166.570183115832</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.983704029015</v>
+        <v>939.1505124299406</v>
       </c>
     </row>
   </sheetData>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>45.75904403824998</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9093,16 +9093,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>70.05088382580925</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>191.7550444507531</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9567,16 +9567,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>157.50511126489</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>121.1000928152324</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>345.1795257293207</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>258.499986350844</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>256.3633117688273</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>232.0714719812692</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,7 +10521,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>290.9917845973855</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>258.499986350844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>257.025877807591</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>258.4999863508435</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>157.8887793782097</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>233.5455805245219</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>258.499986350844</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>398.6338853113293</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23023,16 +23023,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>30.88739499768407</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>28.28813805503963</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>26.17444847102748</v>
       </c>
       <c r="F8" t="n">
-        <v>20.32620637262405</v>
+        <v>20.71510220415747</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>11.68848986422212</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>0.9407135410828182</v>
       </c>
     </row>
     <row r="9">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217.1939706653099</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>228.9184439736616</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>231.6232238184773</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>54.7415301048936</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>105.0925544244371</v>
       </c>
       <c r="G14" t="n">
-        <v>205.8522272625554</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.1269275599054</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>400.3166567922958</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>146.9259375451994</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.85018410292815</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>56.34140261135309</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>291.2528530245751</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>216.3341256763976</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>384.6047330882694</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4035163750517</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.68843280209085</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.1976310043347</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>175.882958395706</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>117.8015223393387</v>
+        <v>150.5230409423282</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H25" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.05941942646666</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>138.1945255936149</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.4035163750517</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.68843280209084</v>
+        <v>37.68843280209086</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U26" t="n">
-        <v>124.3147958032144</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>113.1182242228949</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.05941942646666</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1681193445597</v>
+        <v>95.0414998561663</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>384.604733088269</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>40.95000089285321</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.1976310043347</v>
@@ -24739,16 +24739,16 @@
         <v>256.4716527211199</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.41359304861491</v>
       </c>
       <c r="H31" t="n">
         <v>130.6052614420252</v>
       </c>
       <c r="I31" t="n">
-        <v>10.8005180540348</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4035163750517</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1976310043347</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4361603856688</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>343.5890261426786</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>150.5733864926399</v>
+        <v>150.5733864926403</v>
       </c>
       <c r="H34" t="n">
         <v>130.6052614420252</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>138.1945255936143</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.68843280209084</v>
+        <v>37.68843280209085</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V35" t="n">
-        <v>107.056967016111</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>129.6944544754433</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.05941942646666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1681193445597</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>58.15211431285732</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.68843280209084</v>
+        <v>37.68843280209085</v>
       </c>
       <c r="T38" t="n">
         <v>209.1976310043347</v>
@@ -25450,13 +25450,13 @@
         <v>256.4716527211199</v>
       </c>
       <c r="V38" t="n">
-        <v>44.40494444484386</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>138.1945255936149</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.32072922879672</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>26.53466103141781</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>386.3360598802769</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.68843280209084</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>325.49525775684</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>129.6944544754428</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0470513617563</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.6052614420252</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>61.05941942646666</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>154.0406269096534</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4035163750517</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>265.9577299060851</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.52711023894266</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1976310043347</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4716527211199</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>175.8829583957051</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.843207678048088</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0470513617563</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.6052614420252</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>48.58575455735021</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.1681193445597</v>
       </c>
       <c r="T46" t="n">
-        <v>239.625141907721</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328121.7964647458</v>
+        <v>328121.7964647459</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>328121.7964647457</v>
+        <v>328121.7964647458</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328121.7964647457</v>
+        <v>328121.7964647458</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328121.7964647458</v>
+        <v>328121.7964647459</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342513.6693058953</v>
+        <v>342513.6693058952</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>342513.6693058953</v>
+        <v>342513.6693058952</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342513.6693058955</v>
+        <v>342513.6693058953</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405623.0904895885</v>
+        <v>405623.0904895887</v>
       </c>
       <c r="C2" t="n">
         <v>405623.0904895886</v>
@@ -26322,31 +26322,31 @@
         <v>406404.1660777982</v>
       </c>
       <c r="E2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="F2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="G2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="H2" t="n">
         <v>243811.2355162668</v>
       </c>
       <c r="I2" t="n">
-        <v>254320.2665646955</v>
+        <v>254320.2665646954</v>
       </c>
       <c r="J2" t="n">
         <v>254320.2665646955</v>
       </c>
       <c r="K2" t="n">
-        <v>254320.2665646955</v>
+        <v>254320.2665646954</v>
       </c>
       <c r="L2" t="n">
         <v>254320.2665646955</v>
       </c>
       <c r="M2" t="n">
-        <v>254320.2665646956</v>
+        <v>254320.2665646955</v>
       </c>
       <c r="N2" t="n">
         <v>254320.2665646955</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3293.504824504879</v>
+        <v>3293.504824504878</v>
       </c>
       <c r="E3" t="n">
-        <v>548022.1493403781</v>
+        <v>548022.1493403782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28213.30123183901</v>
+        <v>28213.30123183881</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>825.7217692837759</v>
+        <v>825.7217692837355</v>
       </c>
       <c r="M3" t="n">
-        <v>146237.7281609485</v>
+        <v>146237.7281609484</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>298397.3305546049</v>
       </c>
       <c r="E4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364564</v>
       </c>
       <c r="F4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364564</v>
       </c>
       <c r="G4" t="n">
-        <v>21859.30180364562</v>
+        <v>21859.30180364563</v>
       </c>
       <c r="H4" t="n">
         <v>21859.30180364563</v>
@@ -26444,13 +26444,13 @@
         <v>23050.17390092683</v>
       </c>
       <c r="K4" t="n">
+        <v>23050.17390092681</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23050.17390092681</v>
+      </c>
+      <c r="M4" t="n">
         <v>23050.17390092683</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23050.17390092683</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23050.17390092684</v>
       </c>
       <c r="N4" t="n">
         <v>23050.17390092683</v>
@@ -26459,7 +26459,7 @@
         <v>23050.17390092683</v>
       </c>
       <c r="P4" t="n">
-        <v>23050.17390092684</v>
+        <v>23050.17390092683</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33884.00183384596</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
         <v>48607.7480688236</v>
       </c>
       <c r="J5" t="n">
+        <v>48607.7480688236</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48607.7480688236</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48607.7480688236</v>
+      </c>
+      <c r="M5" t="n">
         <v>48607.74806882361</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
+        <v>48607.7480688236</v>
+      </c>
+      <c r="O5" t="n">
         <v>48607.74806882361</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>48607.74806882361</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48607.74806882362</v>
-      </c>
-      <c r="N5" t="n">
-        <v>48607.74806882362</v>
-      </c>
-      <c r="O5" t="n">
-        <v>48607.74806882362</v>
-      </c>
-      <c r="P5" t="n">
-        <v>48607.74806882362</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73264.77417775569</v>
+        <v>73232.86746025425</v>
       </c>
       <c r="C6" t="n">
-        <v>73264.77417775581</v>
+        <v>73232.86746025419</v>
       </c>
       <c r="D6" t="n">
-        <v>70829.32886484238</v>
+        <v>70799.94174601254</v>
       </c>
       <c r="E6" t="n">
-        <v>-372121.2968373947</v>
+        <v>-372675.1772806167</v>
       </c>
       <c r="F6" t="n">
-        <v>175900.8525029834</v>
+        <v>175346.9720597615</v>
       </c>
       <c r="G6" t="n">
-        <v>175900.8525029834</v>
+        <v>175346.9720597615</v>
       </c>
       <c r="H6" t="n">
-        <v>175900.8525029834</v>
+        <v>175346.9720597614</v>
       </c>
       <c r="I6" t="n">
-        <v>154449.043363106</v>
+        <v>153929.0630200405</v>
       </c>
       <c r="J6" t="n">
-        <v>182662.3445949451</v>
+        <v>182142.3642518793</v>
       </c>
       <c r="K6" t="n">
-        <v>182662.3445949451</v>
+        <v>182142.3642518793</v>
       </c>
       <c r="L6" t="n">
-        <v>181836.6228256613</v>
+        <v>181316.6424825956</v>
       </c>
       <c r="M6" t="n">
-        <v>36424.6164339966</v>
+        <v>35904.63609093098</v>
       </c>
       <c r="N6" t="n">
-        <v>182662.3445949451</v>
+        <v>182142.3642518793</v>
       </c>
       <c r="O6" t="n">
-        <v>182662.3445949451</v>
+        <v>182142.3642518794</v>
       </c>
       <c r="P6" t="n">
-        <v>182662.3445949451</v>
+        <v>182142.3642518793</v>
       </c>
     </row>
   </sheetData>
@@ -26743,31 +26743,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
-        <v>492.6087511193741</v>
+        <v>492.608751119374</v>
       </c>
       <c r="J3" t="n">
-        <v>492.6087511193741</v>
+        <v>492.608751119374</v>
       </c>
       <c r="K3" t="n">
-        <v>492.6087511193741</v>
+        <v>492.6087511193739</v>
       </c>
       <c r="L3" t="n">
-        <v>492.6087511193741</v>
+        <v>492.608751119374</v>
       </c>
       <c r="M3" t="n">
         <v>492.6087511193741</v>
@@ -26779,7 +26779,7 @@
         <v>492.6087511193741</v>
       </c>
       <c r="P3" t="n">
-        <v>492.6087511193742</v>
+        <v>492.6087511193741</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
         <v>622.8433765529811</v>
       </c>
       <c r="J4" t="n">
+        <v>622.8433765529811</v>
+      </c>
+      <c r="K4" t="n">
+        <v>622.843376552981</v>
+      </c>
+      <c r="L4" t="n">
+        <v>622.8433765529811</v>
+      </c>
+      <c r="M4" t="n">
         <v>622.8433765529812</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>622.8433765529811</v>
+      </c>
+      <c r="O4" t="n">
         <v>622.8433765529812</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>622.8433765529812</v>
-      </c>
-      <c r="M4" t="n">
-        <v>622.8433765529813</v>
-      </c>
-      <c r="N4" t="n">
-        <v>622.8433765529813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>622.8433765529813</v>
-      </c>
-      <c r="P4" t="n">
-        <v>622.8433765529813</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="E3" t="n">
-        <v>464.0395950944808</v>
+        <v>464.0395950944809</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25.90682302615295</v>
+        <v>25.90682302615272</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.819345439674</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.76148219104698</v>
+        <v>32.76148219104687</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260118</v>
       </c>
       <c r="M4" t="n">
-        <v>586.819345439674</v>
+        <v>586.8193454396735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>586.819345439674</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27937,13 +27937,13 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>91.46215886643776</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G9" t="n">
         <v>84.52551230889576</v>
@@ -27988,13 +27988,13 @@
         <v>128.8537753079323</v>
       </c>
       <c r="U9" t="n">
-        <v>171.3102558625354</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V9" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>180.7922996256634</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28022,7 +28022,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>173.5377799941589</v>
       </c>
       <c r="G10" t="n">
         <v>163.9305612960722</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S10" t="n">
         <v>157.5652879271376</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>241.5356336162192</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.8829250567725</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31524,7 +31524,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
@@ -31533,7 +31533,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N8" t="n">
         <v>1.909735609237095</v>
@@ -31548,16 +31548,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H9" t="n">
         <v>0.05530620059647288</v>
@@ -31606,7 +31606,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L9" t="n">
         <v>1.243384859458851</v>
@@ -31624,19 +31624,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R9" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T9" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J10" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R10" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T10" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32466,31 +32466,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.2811231051308</v>
       </c>
       <c r="I23" t="n">
-        <v>76.34693016092331</v>
+        <v>76.34693016092329</v>
       </c>
       <c r="J23" t="n">
         <v>168.0786009661024</v>
@@ -32715,13 +32715,13 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L23" t="n">
-        <v>312.5119818784749</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M23" t="n">
         <v>347.7297944522202</v>
       </c>
       <c r="N23" t="n">
-        <v>353.3564260667647</v>
+        <v>353.3564260667646</v>
       </c>
       <c r="O23" t="n">
         <v>333.6644531262892</v>
@@ -32736,10 +32736,10 @@
         <v>124.3973244723714</v>
       </c>
       <c r="S23" t="n">
-        <v>45.12692227591051</v>
+        <v>45.1269222759105</v>
       </c>
       <c r="T23" t="n">
-        <v>8.668923851357023</v>
+        <v>8.668923851357022</v>
       </c>
       <c r="U23" t="n">
         <v>0.1584269350333664</v>
@@ -32785,7 +32785,7 @@
         <v>10.23324971664964</v>
       </c>
       <c r="I24" t="n">
-        <v>9.007689824386524</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J24" t="n">
         <v>100.1064632817211</v>
@@ -32794,7 +32794,7 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L24" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M24" t="n">
         <v>268.4717693600588</v>
@@ -32803,25 +32803,25 @@
         <v>275.5774182323374</v>
       </c>
       <c r="O24" t="n">
-        <v>252.0994992638933</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P24" t="n">
         <v>202.3320736437293</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.2536329488516</v>
+        <v>41.99388713990879</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S24" t="n">
-        <v>19.6811137829297</v>
+        <v>19.68111378292969</v>
       </c>
       <c r="T24" t="n">
-        <v>4.270824927157591</v>
+        <v>4.27082492715759</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06970878553576051</v>
+        <v>0.0697087855357605</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8883108626742809</v>
+        <v>0.8883108626742808</v>
       </c>
       <c r="H25" t="n">
-        <v>7.897891124504068</v>
+        <v>7.897891124504067</v>
       </c>
       <c r="I25" t="n">
         <v>26.71393030660475</v>
@@ -32876,7 +32876,7 @@
         <v>132.0675986197745</v>
       </c>
       <c r="M25" t="n">
-        <v>139.2467655008421</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N25" t="n">
         <v>135.9357886490562</v>
@@ -32888,16 +32888,16 @@
         <v>107.4371610638057</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.38392141902548</v>
+        <v>74.38392141902547</v>
       </c>
       <c r="R25" t="n">
-        <v>39.94168660715448</v>
+        <v>39.94168660715447</v>
       </c>
       <c r="S25" t="n">
         <v>15.4808356704236</v>
       </c>
       <c r="T25" t="n">
-        <v>3.795510049608291</v>
+        <v>3.79551004960829</v>
       </c>
       <c r="U25" t="n">
         <v>0.04845331978223356</v>
@@ -32940,10 +32940,10 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H26" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I26" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092329</v>
       </c>
       <c r="J26" t="n">
         <v>168.0786009661024</v>
@@ -32952,31 +32952,31 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L26" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M26" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N26" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667646</v>
       </c>
       <c r="O26" t="n">
         <v>333.6644531262892</v>
       </c>
       <c r="P26" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R26" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S26" t="n">
-        <v>45.12692227591052</v>
+        <v>45.1269222759105</v>
       </c>
       <c r="T26" t="n">
-        <v>8.668923851357023</v>
+        <v>8.668923851357022</v>
       </c>
       <c r="U26" t="n">
         <v>0.1584269350333664</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H27" t="n">
         <v>10.23324971664964</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J27" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472778124</v>
       </c>
       <c r="K27" t="n">
-        <v>114.319075759444</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L27" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M27" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N27" t="n">
         <v>275.5774182323374</v>
       </c>
       <c r="O27" t="n">
-        <v>252.0994992638933</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P27" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.2536329488516</v>
+        <v>135.2536329488515</v>
       </c>
       <c r="R27" t="n">
-        <v>65.78650453628173</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S27" t="n">
-        <v>19.6811137829297</v>
+        <v>19.68111378292969</v>
       </c>
       <c r="T27" t="n">
-        <v>4.270824927157591</v>
+        <v>4.27082492715759</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06970878553576051</v>
+        <v>0.0697087855357605</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742808</v>
       </c>
       <c r="H28" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504067</v>
       </c>
       <c r="I28" t="n">
         <v>26.71393030660475</v>
       </c>
       <c r="J28" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K28" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L28" t="n">
         <v>132.0675986197745</v>
       </c>
       <c r="M28" t="n">
-        <v>139.2467655008421</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N28" t="n">
         <v>135.9357886490562</v>
       </c>
       <c r="O28" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P28" t="n">
         <v>107.4371610638057</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.38392141902548</v>
+        <v>74.38392141902547</v>
       </c>
       <c r="R28" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715447</v>
       </c>
       <c r="S28" t="n">
         <v>15.4808356704236</v>
       </c>
       <c r="T28" t="n">
-        <v>3.795510049608291</v>
+        <v>3.79551004960829</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H29" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I29" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092329</v>
       </c>
       <c r="J29" t="n">
         <v>168.0786009661024</v>
       </c>
       <c r="K29" t="n">
-        <v>251.9062529656325</v>
+        <v>251.9062529656324</v>
       </c>
       <c r="L29" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M29" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N29" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667646</v>
       </c>
       <c r="O29" t="n">
-        <v>333.6644531262892</v>
+        <v>333.6644531262891</v>
       </c>
       <c r="P29" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R29" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S29" t="n">
-        <v>45.12692227591052</v>
+        <v>45.1269222759105</v>
       </c>
       <c r="T29" t="n">
-        <v>8.668923851357023</v>
+        <v>8.66892385135702</v>
       </c>
       <c r="U29" t="n">
         <v>0.1584269350333664</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H30" t="n">
         <v>10.23324971664964</v>
       </c>
       <c r="I30" t="n">
-        <v>36.48093109704799</v>
+        <v>36.48093109704798</v>
       </c>
       <c r="J30" t="n">
-        <v>6.846717472777556</v>
+        <v>100.1064632817211</v>
       </c>
       <c r="K30" t="n">
-        <v>171.0978904713396</v>
+        <v>77.83814466239662</v>
       </c>
       <c r="L30" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M30" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N30" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O30" t="n">
-        <v>252.0994992638933</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P30" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.2536329488516</v>
+        <v>135.2536329488515</v>
       </c>
       <c r="R30" t="n">
-        <v>65.78650453628173</v>
+        <v>65.7865045362817</v>
       </c>
       <c r="S30" t="n">
-        <v>19.6811137829297</v>
+        <v>19.68111378292969</v>
       </c>
       <c r="T30" t="n">
-        <v>4.270824927157591</v>
+        <v>4.27082492715759</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06970878553576051</v>
+        <v>0.0697087855357605</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742808</v>
       </c>
       <c r="H31" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504066</v>
       </c>
       <c r="I31" t="n">
-        <v>26.71393030660475</v>
+        <v>26.71393030660474</v>
       </c>
       <c r="J31" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107165</v>
       </c>
       <c r="K31" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L31" t="n">
         <v>132.0675986197745</v>
       </c>
       <c r="M31" t="n">
-        <v>139.2467655008421</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N31" t="n">
         <v>135.9357886490562</v>
       </c>
       <c r="O31" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P31" t="n">
         <v>107.4371610638057</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.38392141902548</v>
+        <v>74.38392141902547</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715447</v>
       </c>
       <c r="S31" t="n">
         <v>15.4808356704236</v>
       </c>
       <c r="T31" t="n">
-        <v>3.795510049608291</v>
+        <v>3.79551004960829</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223355</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H32" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I32" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092329</v>
       </c>
       <c r="J32" t="n">
         <v>168.0786009661024</v>
@@ -33426,31 +33426,31 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L32" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M32" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N32" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667646</v>
       </c>
       <c r="O32" t="n">
         <v>333.6644531262892</v>
       </c>
       <c r="P32" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R32" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S32" t="n">
-        <v>45.12692227591052</v>
+        <v>45.1269222759105</v>
       </c>
       <c r="T32" t="n">
-        <v>8.668923851357023</v>
+        <v>8.668923851357022</v>
       </c>
       <c r="U32" t="n">
         <v>0.1584269350333664</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H33" t="n">
         <v>10.23324971664964</v>
@@ -33505,34 +33505,34 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L33" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M33" t="n">
-        <v>175.2120235511153</v>
+        <v>175.2120235511159</v>
       </c>
       <c r="N33" t="n">
         <v>275.5774182323374</v>
       </c>
       <c r="O33" t="n">
-        <v>252.0994992638933</v>
+        <v>252.0994992638932</v>
       </c>
       <c r="P33" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.2536329488516</v>
+        <v>135.2536329488515</v>
       </c>
       <c r="R33" t="n">
-        <v>65.78650453628173</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S33" t="n">
-        <v>19.6811137829297</v>
+        <v>19.68111378292969</v>
       </c>
       <c r="T33" t="n">
-        <v>4.270824927157591</v>
+        <v>4.27082492715759</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06970878553576051</v>
+        <v>0.0697087855357605</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742808</v>
       </c>
       <c r="H34" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504067</v>
       </c>
       <c r="I34" t="n">
         <v>26.71393030660475</v>
       </c>
       <c r="J34" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K34" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L34" t="n">
         <v>132.0675986197745</v>
       </c>
       <c r="M34" t="n">
-        <v>139.2467655008421</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N34" t="n">
         <v>135.9357886490562</v>
       </c>
       <c r="O34" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P34" t="n">
         <v>107.4371610638057</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.38392141902548</v>
+        <v>74.38392141902547</v>
       </c>
       <c r="R34" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715447</v>
       </c>
       <c r="S34" t="n">
         <v>15.4808356704236</v>
       </c>
       <c r="T34" t="n">
-        <v>3.795510049608291</v>
+        <v>3.79551004960829</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H35" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I35" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092331</v>
       </c>
       <c r="J35" t="n">
         <v>168.0786009661024</v>
@@ -33663,28 +33663,28 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L35" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M35" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N35" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O35" t="n">
         <v>333.6644531262892</v>
       </c>
       <c r="P35" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q35" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R35" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S35" t="n">
-        <v>45.12692227591052</v>
+        <v>45.12692227591051</v>
       </c>
       <c r="T35" t="n">
         <v>8.668923851357023</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H36" t="n">
         <v>10.23324971664964</v>
@@ -33736,7 +33736,7 @@
         <v>36.48093109704799</v>
       </c>
       <c r="J36" t="n">
-        <v>6.846717472777556</v>
+        <v>100.1064632817211</v>
       </c>
       <c r="K36" t="n">
         <v>171.0978904713396</v>
@@ -33745,22 +33745,22 @@
         <v>230.0622285298549</v>
       </c>
       <c r="M36" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N36" t="n">
         <v>275.5774182323374</v>
       </c>
       <c r="O36" t="n">
-        <v>252.0994992638933</v>
+        <v>158.8397534549501</v>
       </c>
       <c r="P36" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q36" t="n">
         <v>135.2536329488516</v>
       </c>
       <c r="R36" t="n">
-        <v>65.78650453628173</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S36" t="n">
         <v>19.6811137829297</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742809</v>
       </c>
       <c r="H37" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504068</v>
       </c>
       <c r="I37" t="n">
         <v>26.71393030660475</v>
       </c>
       <c r="J37" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K37" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L37" t="n">
         <v>132.0675986197745</v>
@@ -33830,7 +33830,7 @@
         <v>135.9357886490562</v>
       </c>
       <c r="O37" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P37" t="n">
         <v>107.4371610638057</v>
@@ -33839,7 +33839,7 @@
         <v>74.38392141902548</v>
       </c>
       <c r="R37" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715448</v>
       </c>
       <c r="S37" t="n">
         <v>15.4808356704236</v>
@@ -33848,7 +33848,7 @@
         <v>3.795510049608291</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H38" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I38" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092331</v>
       </c>
       <c r="J38" t="n">
         <v>168.0786009661024</v>
@@ -33900,28 +33900,28 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L38" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M38" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N38" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O38" t="n">
         <v>333.6644531262892</v>
       </c>
       <c r="P38" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q38" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R38" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S38" t="n">
-        <v>45.12692227591052</v>
+        <v>45.12692227591051</v>
       </c>
       <c r="T38" t="n">
         <v>8.668923851357023</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H39" t="n">
         <v>10.23324971664964</v>
@@ -33976,13 +33976,13 @@
         <v>100.1064632817211</v>
       </c>
       <c r="K39" t="n">
-        <v>171.0978904713396</v>
+        <v>77.83814466239647</v>
       </c>
       <c r="L39" t="n">
         <v>230.0622285298549</v>
       </c>
       <c r="M39" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N39" t="n">
         <v>275.5774182323374</v>
@@ -33991,13 +33991,13 @@
         <v>252.0994992638933</v>
       </c>
       <c r="P39" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.7803916761898</v>
+        <v>135.2536329488516</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S39" t="n">
         <v>19.6811137829297</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742809</v>
       </c>
       <c r="H40" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504068</v>
       </c>
       <c r="I40" t="n">
         <v>26.71393030660475</v>
       </c>
       <c r="J40" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K40" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L40" t="n">
         <v>132.0675986197745</v>
@@ -34067,7 +34067,7 @@
         <v>135.9357886490562</v>
       </c>
       <c r="O40" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P40" t="n">
         <v>107.4371610638057</v>
@@ -34076,7 +34076,7 @@
         <v>74.38392141902548</v>
       </c>
       <c r="R40" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715448</v>
       </c>
       <c r="S40" t="n">
         <v>15.4808356704236</v>
@@ -34085,7 +34085,7 @@
         <v>3.795510049608291</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.98033668791708</v>
       </c>
       <c r="H41" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I41" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092331</v>
       </c>
       <c r="J41" t="n">
         <v>168.0786009661024</v>
@@ -34137,28 +34137,28 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L41" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M41" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N41" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O41" t="n">
         <v>333.6644531262892</v>
       </c>
       <c r="P41" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q41" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R41" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S41" t="n">
-        <v>45.12692227591052</v>
+        <v>45.12692227591051</v>
       </c>
       <c r="T41" t="n">
         <v>8.668923851357023</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H42" t="n">
         <v>10.23324971664964</v>
@@ -34219,7 +34219,7 @@
         <v>230.0622285298549</v>
       </c>
       <c r="M42" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N42" t="n">
         <v>275.5774182323374</v>
@@ -34228,13 +34228,13 @@
         <v>252.0994992638933</v>
       </c>
       <c r="P42" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.7803916761898</v>
+        <v>41.99388713990857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S42" t="n">
         <v>19.6811137829297</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8883108626742811</v>
+        <v>0.8883108626742809</v>
       </c>
       <c r="H43" t="n">
-        <v>7.897891124504069</v>
+        <v>7.897891124504068</v>
       </c>
       <c r="I43" t="n">
         <v>26.71393030660475</v>
       </c>
       <c r="J43" t="n">
-        <v>62.80357799107167</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K43" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L43" t="n">
         <v>132.0675986197745</v>
@@ -34304,7 +34304,7 @@
         <v>135.9357886490562</v>
       </c>
       <c r="O43" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P43" t="n">
         <v>107.4371610638057</v>
@@ -34313,7 +34313,7 @@
         <v>74.38392141902548</v>
       </c>
       <c r="R43" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715448</v>
       </c>
       <c r="S43" t="n">
         <v>15.4808356704236</v>
@@ -34322,7 +34322,7 @@
         <v>3.795510049608291</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04845331978223357</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.980336687917081</v>
+        <v>1.98033668791708</v>
       </c>
       <c r="H44" t="n">
-        <v>20.28112310513081</v>
+        <v>20.2811231051308</v>
       </c>
       <c r="I44" t="n">
-        <v>76.34693016092332</v>
+        <v>76.34693016092331</v>
       </c>
       <c r="J44" t="n">
-        <v>168.0786009661025</v>
+        <v>168.0786009661024</v>
       </c>
       <c r="K44" t="n">
         <v>251.9062529656325</v>
       </c>
       <c r="L44" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M44" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N44" t="n">
-        <v>353.3564260667648</v>
+        <v>353.3564260667647</v>
       </c>
       <c r="O44" t="n">
-        <v>333.6644531262893</v>
+        <v>333.6644531262892</v>
       </c>
       <c r="P44" t="n">
-        <v>284.7748911433363</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q44" t="n">
-        <v>213.8540835073058</v>
+        <v>213.8540835073057</v>
       </c>
       <c r="R44" t="n">
         <v>124.3973244723714</v>
       </c>
       <c r="S44" t="n">
-        <v>45.12692227591052</v>
+        <v>45.12692227591051</v>
       </c>
       <c r="T44" t="n">
-        <v>8.668923851357025</v>
+        <v>8.668923851357023</v>
       </c>
       <c r="U44" t="n">
         <v>0.1584269350333664</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.05957354014356</v>
+        <v>1.059573540143559</v>
       </c>
       <c r="H45" t="n">
         <v>10.23324971664964</v>
       </c>
       <c r="I45" t="n">
-        <v>36.480931097048</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J45" t="n">
-        <v>6.846717472777513</v>
+        <v>6.846717472777982</v>
       </c>
       <c r="K45" t="n">
         <v>171.0978904713396</v>
@@ -34456,7 +34456,7 @@
         <v>230.0622285298549</v>
       </c>
       <c r="M45" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N45" t="n">
         <v>275.5774182323374</v>
@@ -34465,22 +34465,22 @@
         <v>252.0994992638933</v>
       </c>
       <c r="P45" t="n">
-        <v>202.3320736437294</v>
+        <v>202.3320736437293</v>
       </c>
       <c r="Q45" t="n">
         <v>135.2536329488516</v>
       </c>
       <c r="R45" t="n">
-        <v>65.78650453628174</v>
+        <v>65.78650453628171</v>
       </c>
       <c r="S45" t="n">
         <v>19.6811137829297</v>
       </c>
       <c r="T45" t="n">
-        <v>4.270824927157592</v>
+        <v>4.270824927157591</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06970878553576053</v>
+        <v>0.06970878553576051</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8883108626742812</v>
+        <v>0.8883108626742809</v>
       </c>
       <c r="H46" t="n">
-        <v>7.89789112450407</v>
+        <v>7.897891124504068</v>
       </c>
       <c r="I46" t="n">
-        <v>26.71393030660476</v>
+        <v>26.71393030660475</v>
       </c>
       <c r="J46" t="n">
-        <v>62.80357799107168</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K46" t="n">
-        <v>103.2055711361574</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L46" t="n">
         <v>132.0675986197745</v>
@@ -34541,16 +34541,16 @@
         <v>135.9357886490562</v>
       </c>
       <c r="O46" t="n">
-        <v>125.5587026623612</v>
+        <v>125.5587026623611</v>
       </c>
       <c r="P46" t="n">
         <v>107.4371610638057</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.3839214190255</v>
+        <v>74.38392141902548</v>
       </c>
       <c r="R46" t="n">
-        <v>39.94168660715449</v>
+        <v>39.94168660715448</v>
       </c>
       <c r="S46" t="n">
         <v>15.4808356704236</v>
@@ -34559,7 +34559,7 @@
         <v>3.795510049608291</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04845331978223358</v>
+        <v>0.04845331978223356</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817437</v>
       </c>
       <c r="K8" t="n">
         <v>1.361442175632203</v>
@@ -35187,13 +35187,13 @@
         <v>1.909735609237094</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P8" t="n">
         <v>1.539082665869758</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R8" t="n">
         <v>0.6723126642497288</v>
@@ -35266,13 +35266,13 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O9" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P9" t="n">
-        <v>1.09351560470901</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975223</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R9" t="n">
         <v>0.3555470370770522</v>
@@ -35333,19 +35333,19 @@
         <v>0.3394256349377582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L10" t="n">
         <v>0.7137671124819467</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783421</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N10" t="n">
         <v>0.7346729732425472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559681</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P10" t="n">
         <v>0.5806504625449316</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>164.7144797430599</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,19 +35813,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>198.8376634256977</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,25 +36044,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.852445040951</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>293.5419698827566</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512696</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>259.2920366968935</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.9343086817919</v>
+        <v>75.93430868179189</v>
       </c>
       <c r="J23" t="n">
         <v>168.0786009661024</v>
       </c>
       <c r="K23" t="n">
-        <v>251.9062529656325</v>
+        <v>251.9062529656326</v>
       </c>
       <c r="L23" t="n">
         <v>312.5119818784749</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.007689824386524</v>
+        <v>36.48093109704798</v>
       </c>
       <c r="J24" t="n">
         <v>100.1064632817211</v>
@@ -36442,10 +36442,10 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L24" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M24" t="n">
-        <v>268.4717693600588</v>
+        <v>268.4717693600587</v>
       </c>
       <c r="N24" t="n">
         <v>275.5774182323373</v>
@@ -36457,10 +36457,10 @@
         <v>202.3320736437292</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.2536329488516</v>
+        <v>41.99388713990879</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>65.78650453628165</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>150.2578054301523</v>
       </c>
       <c r="K25" t="n">
-        <v>380.7393636322539</v>
+        <v>380.739363632254</v>
       </c>
       <c r="L25" t="n">
         <v>554.501822627816</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>75.93430868179192</v>
+        <v>75.93430868179189</v>
       </c>
       <c r="J26" t="n">
         <v>168.0786009661024</v>
       </c>
       <c r="K26" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L26" t="n">
-        <v>312.5119818784747</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M26" t="n">
         <v>347.7297944522202</v>
@@ -36609,7 +36609,7 @@
         <v>353.3564260667647</v>
       </c>
       <c r="O26" t="n">
-        <v>333.6644531262893</v>
+        <v>333.6644531262891</v>
       </c>
       <c r="P26" t="n">
         <v>284.7748911433364</v>
@@ -36618,7 +36618,7 @@
         <v>213.8540835073059</v>
       </c>
       <c r="R26" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.48093109704798</v>
       </c>
       <c r="J27" t="n">
-        <v>100.1064632817211</v>
+        <v>6.846717472778124</v>
       </c>
       <c r="K27" t="n">
-        <v>114.319075759444</v>
+        <v>171.0978904713396</v>
       </c>
       <c r="L27" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M27" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N27" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O27" t="n">
         <v>252.0994992638932</v>
       </c>
       <c r="P27" t="n">
-        <v>202.3320736437295</v>
+        <v>202.3320736437292</v>
       </c>
       <c r="Q27" t="n">
         <v>135.2536329488516</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.2578054301524</v>
+        <v>62.80357799107166</v>
       </c>
       <c r="K28" t="n">
-        <v>380.7393636322539</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L28" t="n">
-        <v>253.1676914350069</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M28" t="n">
-        <v>603.3718838654006</v>
+        <v>484.4262912301627</v>
       </c>
       <c r="N28" t="n">
-        <v>582.6618524446567</v>
+        <v>582.6618524446568</v>
       </c>
       <c r="O28" t="n">
-        <v>125.5587026623612</v>
+        <v>549.4670352136554</v>
       </c>
       <c r="P28" t="n">
-        <v>107.4371610638059</v>
+        <v>458.4542256803124</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.2756132011796</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R28" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>75.93430868179192</v>
+        <v>75.93430868179189</v>
       </c>
       <c r="J29" t="n">
-        <v>168.0786009661026</v>
+        <v>168.0786009661024</v>
       </c>
       <c r="K29" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L29" t="n">
         <v>312.5119818784749</v>
       </c>
       <c r="M29" t="n">
-        <v>347.7297944522204</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N29" t="n">
-        <v>353.3564260667647</v>
+        <v>353.3564260667645</v>
       </c>
       <c r="O29" t="n">
-        <v>333.6644531262889</v>
+        <v>333.6644531262893</v>
       </c>
       <c r="P29" t="n">
-        <v>284.7748911433364</v>
+        <v>284.7748911433362</v>
       </c>
       <c r="Q29" t="n">
         <v>213.8540835073059</v>
@@ -36910,25 +36910,25 @@
         <v>36.48093109704799</v>
       </c>
       <c r="J30" t="n">
-        <v>6.846717472777556</v>
+        <v>100.1064632817211</v>
       </c>
       <c r="K30" t="n">
-        <v>171.0978904713396</v>
+        <v>77.83814466239662</v>
       </c>
       <c r="L30" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M30" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N30" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O30" t="n">
         <v>252.0994992638932</v>
       </c>
       <c r="P30" t="n">
-        <v>202.3320736437295</v>
+        <v>202.3320736437292</v>
       </c>
       <c r="Q30" t="n">
         <v>135.2536329488516</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>150.2578054301524</v>
+        <v>62.80357799107165</v>
       </c>
       <c r="K31" t="n">
-        <v>380.7393636322539</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L31" t="n">
         <v>554.501822627816</v>
       </c>
       <c r="M31" t="n">
-        <v>139.246765500842</v>
+        <v>603.3718838654006</v>
       </c>
       <c r="N31" t="n">
         <v>135.9357886490561</v>
       </c>
       <c r="O31" t="n">
-        <v>384.0586890132051</v>
+        <v>549.4670352136557</v>
       </c>
       <c r="P31" t="n">
-        <v>458.4542256803124</v>
+        <v>363.8004728326332</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.2756132011791</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R31" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>75.93430868179192</v>
+        <v>75.93430868179189</v>
       </c>
       <c r="J32" t="n">
         <v>168.0786009661024</v>
@@ -37074,10 +37074,10 @@
         <v>251.9062529656325</v>
       </c>
       <c r="L32" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M32" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N32" t="n">
         <v>353.3564260667647</v>
@@ -37092,7 +37092,7 @@
         <v>213.8540835073059</v>
       </c>
       <c r="R32" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.48093109704799</v>
+        <v>36.48093109704798</v>
       </c>
       <c r="J33" t="n">
         <v>100.1064632817211</v>
@@ -37153,19 +37153,19 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L33" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M33" t="n">
-        <v>175.2120235511153</v>
+        <v>175.2120235511159</v>
       </c>
       <c r="N33" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O33" t="n">
         <v>252.0994992638932</v>
       </c>
       <c r="P33" t="n">
-        <v>202.3320736437295</v>
+        <v>202.3320736437292</v>
       </c>
       <c r="Q33" t="n">
         <v>135.2536329488516</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.80357799107167</v>
+        <v>150.2578054301523</v>
       </c>
       <c r="K34" t="n">
-        <v>103.2055711361573</v>
+        <v>380.739363632254</v>
       </c>
       <c r="L34" t="n">
-        <v>364.1390706010437</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M34" t="n">
-        <v>603.3718838654006</v>
+        <v>603.3718838654007</v>
       </c>
       <c r="N34" t="n">
-        <v>582.6618524446567</v>
+        <v>582.6618524446569</v>
       </c>
       <c r="O34" t="n">
-        <v>549.4670352136554</v>
+        <v>416.5504872597467</v>
       </c>
       <c r="P34" t="n">
         <v>107.4371610638059</v>
@@ -37250,7 +37250,7 @@
         <v>74.38392141902568</v>
       </c>
       <c r="R34" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>75.93430868179192</v>
+        <v>75.9343086817919</v>
       </c>
       <c r="J35" t="n">
-        <v>168.0786009661024</v>
+        <v>168.0786009661028</v>
       </c>
       <c r="K35" t="n">
         <v>251.9062529656325</v>
       </c>
       <c r="L35" t="n">
-        <v>312.5119818784749</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M35" t="n">
-        <v>347.7297944522204</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N35" t="n">
         <v>353.3564260667647</v>
@@ -37384,25 +37384,25 @@
         <v>36.48093109704799</v>
       </c>
       <c r="J36" t="n">
-        <v>6.846717472777556</v>
+        <v>100.1064632817211</v>
       </c>
       <c r="K36" t="n">
         <v>171.0978904713396</v>
       </c>
       <c r="L36" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M36" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N36" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O36" t="n">
-        <v>252.0994992638932</v>
+        <v>158.8397534549501</v>
       </c>
       <c r="P36" t="n">
-        <v>202.3320736437295</v>
+        <v>202.3320736437292</v>
       </c>
       <c r="Q36" t="n">
         <v>135.2536329488516</v>
@@ -37472,22 +37472,22 @@
         <v>554.501822627816</v>
       </c>
       <c r="M37" t="n">
-        <v>397.746751851686</v>
+        <v>139.246765500842</v>
       </c>
       <c r="N37" t="n">
         <v>135.9357886490561</v>
       </c>
       <c r="O37" t="n">
-        <v>125.5587026623612</v>
+        <v>384.0586890132051</v>
       </c>
       <c r="P37" t="n">
         <v>458.4542256803124</v>
       </c>
       <c r="Q37" t="n">
-        <v>244.2756132011796</v>
+        <v>244.2756132011791</v>
       </c>
       <c r="R37" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.93430868179192</v>
+        <v>75.9343086817919</v>
       </c>
       <c r="J38" t="n">
         <v>168.0786009661024</v>
       </c>
       <c r="K38" t="n">
-        <v>251.9062529656326</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L38" t="n">
-        <v>312.5119818784749</v>
+        <v>312.511981878475</v>
       </c>
       <c r="M38" t="n">
-        <v>347.7297944522204</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N38" t="n">
         <v>353.3564260667647</v>
@@ -37560,13 +37560,13 @@
         <v>333.6644531262891</v>
       </c>
       <c r="P38" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q38" t="n">
         <v>213.8540835073059</v>
       </c>
       <c r="R38" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>100.1064632817211</v>
       </c>
       <c r="K39" t="n">
-        <v>171.0978904713396</v>
+        <v>77.83814466239647</v>
       </c>
       <c r="L39" t="n">
         <v>230.0622285298549</v>
       </c>
       <c r="M39" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N39" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O39" t="n">
         <v>252.0994992638932</v>
@@ -37642,10 +37642,10 @@
         <v>202.3320736437292</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.7803916761898</v>
+        <v>135.2536329488516</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>65.78650453628165</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>150.2578054301524</v>
+        <v>150.2578054301523</v>
       </c>
       <c r="K40" t="n">
-        <v>380.7393636322539</v>
+        <v>380.739363632254</v>
       </c>
       <c r="L40" t="n">
-        <v>132.0675986197746</v>
+        <v>554.501822627816</v>
       </c>
       <c r="M40" t="n">
         <v>139.246765500842</v>
       </c>
       <c r="N40" t="n">
-        <v>392.9616664566472</v>
+        <v>135.9357886490561</v>
       </c>
       <c r="O40" t="n">
-        <v>549.4670352136554</v>
+        <v>384.0586890132047</v>
       </c>
       <c r="P40" t="n">
         <v>458.4542256803124</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.2756132011796</v>
+        <v>244.2756132011791</v>
       </c>
       <c r="R40" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>75.93430868179192</v>
+        <v>75.9343086817919</v>
       </c>
       <c r="J41" t="n">
-        <v>168.0786009661025</v>
+        <v>168.0786009661024</v>
       </c>
       <c r="K41" t="n">
         <v>251.9062529656325</v>
       </c>
       <c r="L41" t="n">
-        <v>312.511981878475</v>
+        <v>312.5119818784749</v>
       </c>
       <c r="M41" t="n">
-        <v>347.7297944522203</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N41" t="n">
         <v>353.3564260667647</v>
@@ -37803,7 +37803,7 @@
         <v>213.8540835073059</v>
       </c>
       <c r="R41" t="n">
-        <v>124.3973244723716</v>
+        <v>124.3973244723711</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>171.0978904713396</v>
       </c>
       <c r="L42" t="n">
-        <v>230.0622285298549</v>
+        <v>230.0622285298548</v>
       </c>
       <c r="M42" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N42" t="n">
-        <v>275.5774182323375</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O42" t="n">
         <v>252.0994992638932</v>
@@ -37879,10 +37879,10 @@
         <v>202.3320736437292</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.7803916761898</v>
+        <v>41.99388713990857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.78650453628165</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.80357799107166</v>
+        <v>62.80357799107167</v>
       </c>
       <c r="K43" t="n">
         <v>103.2055711361573</v>
       </c>
       <c r="L43" t="n">
-        <v>289.9563779979842</v>
+        <v>554.501822627816</v>
       </c>
       <c r="M43" t="n">
         <v>603.3718838654007</v>
       </c>
       <c r="N43" t="n">
-        <v>135.9357886490561</v>
+        <v>582.6618524446567</v>
       </c>
       <c r="O43" t="n">
-        <v>549.4670352136554</v>
+        <v>359.1042831868831</v>
       </c>
       <c r="P43" t="n">
-        <v>458.4542256803124</v>
+        <v>107.4371610638059</v>
       </c>
       <c r="Q43" t="n">
-        <v>244.2756132011796</v>
+        <v>74.38392141902568</v>
       </c>
       <c r="R43" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>75.93430868179192</v>
+        <v>75.9343086817919</v>
       </c>
       <c r="J44" t="n">
         <v>168.0786009661028</v>
       </c>
       <c r="K44" t="n">
-        <v>251.9062529656328</v>
+        <v>251.9062529656325</v>
       </c>
       <c r="L44" t="n">
-        <v>312.5119818784749</v>
+        <v>312.5119818784748</v>
       </c>
       <c r="M44" t="n">
-        <v>347.7297944522204</v>
+        <v>347.7297944522202</v>
       </c>
       <c r="N44" t="n">
         <v>353.3564260667647</v>
@@ -38034,7 +38034,7 @@
         <v>333.6644531262893</v>
       </c>
       <c r="P44" t="n">
-        <v>284.7748911433362</v>
+        <v>284.7748911433364</v>
       </c>
       <c r="Q44" t="n">
         <v>213.8540835073059</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.480931097048</v>
+        <v>36.48093109704799</v>
       </c>
       <c r="J45" t="n">
-        <v>6.846717472777513</v>
+        <v>6.846717472777982</v>
       </c>
       <c r="K45" t="n">
         <v>171.0978904713396</v>
@@ -38104,16 +38104,16 @@
         <v>230.0622285298549</v>
       </c>
       <c r="M45" t="n">
-        <v>268.4717693600589</v>
+        <v>268.4717693600588</v>
       </c>
       <c r="N45" t="n">
-        <v>275.5774182323374</v>
+        <v>275.5774182323373</v>
       </c>
       <c r="O45" t="n">
         <v>252.0994992638932</v>
       </c>
       <c r="P45" t="n">
-        <v>202.3320736437295</v>
+        <v>202.3320736437292</v>
       </c>
       <c r="Q45" t="n">
         <v>135.2536329488516</v>
@@ -38177,28 +38177,28 @@
         <v>150.2578054301524</v>
       </c>
       <c r="K46" t="n">
-        <v>380.7393636322539</v>
+        <v>103.2055711361573</v>
       </c>
       <c r="L46" t="n">
-        <v>554.501822627816</v>
+        <v>132.0675986197745</v>
       </c>
       <c r="M46" t="n">
-        <v>397.746751851686</v>
+        <v>603.3718838654007</v>
       </c>
       <c r="N46" t="n">
-        <v>135.9357886490561</v>
+        <v>582.6618524446567</v>
       </c>
       <c r="O46" t="n">
-        <v>125.5587026623612</v>
+        <v>524.1925879736905</v>
       </c>
       <c r="P46" t="n">
-        <v>458.4542256803124</v>
+        <v>107.4371610638059</v>
       </c>
       <c r="Q46" t="n">
-        <v>244.2756132011796</v>
+        <v>244.2756132011791</v>
       </c>
       <c r="R46" t="n">
-        <v>18.73804352547265</v>
+        <v>18.73804352547264</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
